--- a/medicine/Psychotrope/Sleeman/Sleeman.xlsx
+++ b/medicine/Psychotrope/Sleeman/Sleeman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sleeman Breweries Ltd. est une entreprise canadienne spécialisée dans la fabrication, la mise en marché et la distribution de bières dites de microbrasserie, portant le même nom.
 </t>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le 30 juin 2004, Sleeman Breweries Ltd. achète Unibroue pour 36,5 millions de dollars.
-Le 11 août 2006, Sapporo, une brasserie japonaise, offre d'acheter Sleeman pour la somme de 400 millions CAD[1].</t>
+Le 11 août 2006, Sapporo, une brasserie japonaise, offre d'acheter Sleeman pour la somme de 400 millions CAD.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Site officiel de Sleeman Breweries</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Une brasserie japonaise achète Sleeman au prix de 400 millions $, Presse canadienne, 2006-08-12
